--- a/documentos/papers.xlsx
+++ b/documentos/papers.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chj06\OneDrive\Documents\Escuela\Proyecto_Terminal\Monitoreo-Comportamientos-Sospechosos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chj06\OneDrive\Documents\Escuela\Proyecto_Terminal\Monitoreo-Comportamientos-Sospechosos\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A310DB48-A61E-4349-9143-AC55EEABFF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5E1EB3-4967-4072-A4A4-C441DF8F85D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F6E72EA-7162-433F-B57F-5767390D9FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="238">
   <si>
     <t>No.</t>
   </si>
@@ -65,17 +66,707 @@
     <t>Metodologia</t>
   </si>
   <si>
-    <t>Métrisca de evaluación</t>
-  </si>
-  <si>
     <t>Modelo de aprendizaje</t>
+  </si>
+  <si>
+    <t>Autor(es)</t>
+  </si>
+  <si>
+    <t>Penna Charolet Carlos</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>05-TResearch-ALLANAMIENTO-MORADA-MX</t>
+  </si>
+  <si>
+    <t>Suspicious activity detection using deep learning in secure assisted living IoT environments</t>
+  </si>
+  <si>
+    <t>G. Vallathan,  A. John,  Chandrasegar Thirumalai,  SenthilKumar Mohan, Gautam Srivastava, Jerry Chun‑Wei Lin</t>
+  </si>
+  <si>
+    <t>Criminología, inteligencia artificial, detección de delitos, geografía social, Sistemas de Información Geográfica (GIS), mapas delictivos, análisis espacio-temporal.</t>
+  </si>
+  <si>
+    <t>Barragán-Huamán H., Cataño-Añazco K., Sevincha-Chacabana M., &amp; Vargas-Salas O. (2023). La inteligencia artificial y la video-vigilancia en la predicción y detección de delitos en espacio-tiempo: una revisión sistemática. Revista Criminalidad, 65(1), 11-25. https://doi. org/10.47741/17943108.398</t>
+  </si>
+  <si>
+    <t>Citas que podrian ser útiles</t>
+  </si>
+  <si>
+    <t>Métrisas de evaluación</t>
+  </si>
+  <si>
+    <t>El documento recopila una serie de trabajos relacionados a la relacion de la delincuencia en el espacio y el tiempo utilizando algoritmos de aprendizaje máquina para la predicción de delitos</t>
+  </si>
+  <si>
+    <t>Analysis of Automatic Annotations of Real Video Surveillance Images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana Karina Guevara Flores, Fernando Perez Tellez , David Eduardo Pinto Avendano </t>
+  </si>
+  <si>
+    <t>Automatic annotation, semantic analysis, surveillance images.</t>
+  </si>
+  <si>
+    <t>Additionally, a notable performance have been obtained with databases such as MS COCO [12] or Flickr [15], however, tests with real data have not achieved sufficiently accurate results, mainly when the test environment differs from the domain of the database used in the training.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cita </t>
+  </si>
+  <si>
+    <t>Flores, D. K. G., Téllez, F. P., &amp; Avendaño, D. E. P. (2020). Analysis of Automatic Annotations of Real Video Surveillance Images. Computación y Sistemas, 24(2). https://doi.org/10.13053/cys-24-2-3393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento propone un sistema que describe lo que ve una cámara de seguridad en un paso peatonal, el sistema funciona con  imágenes tomadas en el exterior, en el día , en un entorno no crontrolado . </t>
+  </si>
+  <si>
+    <t>Tras una comparación del estacionamitno vacío y otra de personas pasando dio resultados regulares</t>
+  </si>
+  <si>
+    <t>* Usando personas reales para determinar que la descripción de la imagen es precida en una escala de 1 a 4          * BLEU                                         * METEOR</t>
+  </si>
+  <si>
+    <t>Flickr8K</t>
+  </si>
+  <si>
+    <t>For the generation of annotations, a maximum entropy language model (MELM) and a deep multimodal similarity model (DMSM) are used. These two networks are trained together with a database formed by image-annotation pairs.</t>
+  </si>
+  <si>
+    <t>A new benchmark collection for sentence-based image description and search, consisting of 8,000 images that are each paired with five different captions which provide clear descriptions of the salient entities and events.</t>
+  </si>
+  <si>
+    <t>A study on intelligent security camera system based on sequential motion recognition by using deep learning</t>
+  </si>
+  <si>
+    <t>Itary Nagayama, Akira Miyahara, Koichi Shimabukuro</t>
+  </si>
+  <si>
+    <t>Deep learning, LSTM, night road, security camera, snatching incident</t>
+  </si>
+  <si>
+    <t>LSTM con una puerta de olvido adaptado a funcionar como una RNN y SAM (Sntaching Action Model)</t>
+  </si>
+  <si>
+    <t>Nagayama, I., Miyahara, A., &amp; Shimabukuro, K. (2019). A study on intelligent security camera system based on sequential motion recognition by using deep learning. Electronics And Communications In Japan, 102(11), 25-32. https://doi.org/10.1002/ecj.12216</t>
+  </si>
+  <si>
+    <t>Se realiza el preprocesamiento de los videos (eliminacion de ruido) para que se extraigan los patrones de comportamiento. Se obtienen las coordenadas de la carretera, se calcula la distnacia entre los objetvos cada 10 frames y se meten a SAM, se reducen los frames a 32x24 pixeles y se pasan a escala de grises.</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Se comparó con una version preeliminar del modelo y se obtuvo un mejor resultado del 98.89%</t>
+  </si>
+  <si>
+    <t>El documento es una nueva version de un modelo llamado SAM que busca detectar indicentes de robo nocturno en las calles, esta vez se probó el modelo SAM con una LSTM adaptada a trabajar como una RNN para comparar los resultados con los obtenidos en un trabajo pervio</t>
+  </si>
+  <si>
+    <t>Deep Learning Approach for Suspicious Activity Detection from Surveillance Video</t>
+  </si>
+  <si>
+    <t>Amrutha C.V, C. Jyotsna, Amudha J.</t>
+  </si>
+  <si>
+    <t>suspicious activity, video surveillance, deep learning</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Amrutha, C., Jyotsna, C., &amp; Amudha, J. (2020). Deep Learning Approach for Suspicious Activity Detection from Surveillance Video. IEEE. https://doi.org/10.1109/icimia48430.2020.9074920</t>
+  </si>
+  <si>
+    <t>Advantages of video surveillance are effective monitoring, less manpower required, cost effective auditing capability, adopting new security trends etc. Currently, the tracking has been performed by human. Since we are dealing with huge amount of video data, this is easy to make people feel tired and the manual intervention will also produce omissions. It greatly affects the efficiency of the system. This has been solved by the automation of video surveillance</t>
+  </si>
+  <si>
+    <t>On the other hand, conventional security cameras used widely in Japan and abroad are designed to record video and have no other functions in most cases. Therefore, manned monitoring is needed to detect and immediately respond to incidents and accidents. For this reason, reporting, initial response, and rescue operations often prove impossible in abnormal situations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. </t>
+  </si>
+  <si>
+    <t>Las estadisticas demuestran una disminucion del 8% en los intentos de allanamiento de morada del año 2024 en comparacion con los anteriores</t>
+  </si>
+  <si>
+    <t>El documento muestra las tendencias de allanamiento de morada en los ultimos años en México, asi como los estados más afectados y las tendencias que han seguido en los últimos años</t>
+  </si>
+  <si>
+    <t>Even if the event had already happened, searching manually the same event in the recorded video wastes a lot of time. Analyzing abnormal events from video is an emerging topic in the domain of automated video surveillance systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer vision methods involves the following stages: modelling of environments, detection of motion, classification of moving objects, tracking, behavior understanding and description, and fusion of information from multiple cameras. This method requires lot of pre-processing to extract features in different video sequences. </t>
+  </si>
+  <si>
+    <t>In the case of video stream, long short term memory (LSTM) models are capable of learning long term dependencies</t>
+  </si>
+  <si>
+    <t>Computer vision methods require lot of pre-processing to extract the trajectories or motion pattern to understand the evolution of features in a video sequence [13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recolección de videos CCVT de un campus universitario,CAVIAR dataset y videos de Youtube se usaron para el entrenamiento de conductas sospechosas. KTH dataset para el entrenamiento de conductas normales y </t>
+  </si>
+  <si>
+    <t>Ellos mismos formaron el conjunto de datos, extrayendo secuencias de video de las cámaras de vigilancia de un campus universitario. CAVIAR Dataset is a time-varying criminal network that is repeatedly disturbed by police forces. The KTH dataset is one of the most standard datasets, which contains six actions: walk, jog, run, box, hand-wave, and hand clap.</t>
+  </si>
+  <si>
+    <t>Dos CNN y un RNN (LSTM), VGG-16 para la extracción de características</t>
+  </si>
+  <si>
+    <t>Para las primeras 10 epocas de entrenamiento el sistema alcanó un accuracy de 76%, tras un mayor numero de epocas se alcanzó un 87.15%</t>
+  </si>
+  <si>
+    <t>El sistema extrae los frames de una serie de videos para luego obtener sus caracteristicas por medio de una CNN preentrenada llamada VGG-16, luego se utiliza una LSTM para obtener la clasificación de las clases y si se detecta una actividad sospechosa, se manda un mensaje de texto a los guardias del campus. El sistema fue probado con videos reales del campus.</t>
+  </si>
+  <si>
+    <t>Deep learning, atypical action recognition, semi-supervised training.</t>
+  </si>
+  <si>
+    <t>Automatic Recognition of Abnormal Human Actions with Semi-supervised Training: A Literature Review</t>
+  </si>
+  <si>
+    <t>Diana-Karina Guevara-Flores, Josefina Guerrero-Garcia, David-Eduardo Pinto-Avendaño</t>
+  </si>
+  <si>
+    <t>Guevara-Flores, D. K. G. F., Guerrero-Garcia, J. G. G., &amp; Pinto-Avedaño, D. E. P. A. (2019). Automatic recognition of abnormal human actions with semi-supervised training: a literature review. Research In Computing Science, 148(3).</t>
+  </si>
+  <si>
+    <t>Video analysis with machine learning is a challenge task and there are few methods to capture the movement information of adjacent frames in a long term scheme.</t>
+  </si>
+  <si>
+    <t>Actions that should be classified within the same class may seem dramatically different in terms of appearance and movement patterns. In the same way, it is possible that risky actions seem normal either because the individual who perform them pretends that this is the case or because of inherent faults in the system, such as the location of the cameras.</t>
+  </si>
+  <si>
+    <t>Matriz de confusión</t>
+  </si>
+  <si>
+    <t>precision, recall
+and area under the ROC curve, Probability of detection failures,
+False alarm rate,
+Accuracy (average),
+Speed</t>
+  </si>
+  <si>
+    <t>Convolucion 3D, The algorithm combines Deep learning, machine learning and a similarity calculation method with error suppression</t>
+  </si>
+  <si>
+    <t>El documento presenta una recopilacion de literatura relacionada a la deteccion de comportamientoss sospechosos a traves de cámaras de seguridad, presenta varias metodologías y sistemas comerciales. Entre los de inferés está Netatmo Welcome y Butterfleye ya que son sistemas usados en casa que reconcoen la presencia de personas familiares y extraños</t>
+  </si>
+  <si>
+    <t>Fast and Robust Algorithm of Tracking Multiple Moving Objects for Intelligent Video Surveillance Systems</t>
+  </si>
+  <si>
+    <t>Jong Sun Kim, Dong Hae Yeom, and Young Hoon Joo</t>
+  </si>
+  <si>
+    <t>Multiple moving object tracking, IP camera, NVR, background modeling, morphology, blob-labeling, group tracking.</t>
+  </si>
+  <si>
+    <t>Kim, J., Yeom, D., &amp; Joo, Y. (2011). Fast and robust algorithm of tracking multiple moving objects for intelligent video surveillance systems. IEEE Transactions On Consumer Electronics, 57(3), 1165-1170. https://doi.org/10.1109/tce.2011.6018870</t>
+  </si>
+  <si>
+    <t>Elharrouss, O., Almaadeed, N., &amp; Al-Maadeed, S. (2021). A review of video surveillance systems. Journal of Visual Communication and Image Representation, 77, 103116. doi:10.1016/j.jvcir.2021.103116 </t>
+  </si>
+  <si>
+    <t>A review of video surveillance systems</t>
+  </si>
+  <si>
+    <t>Omar Elharrouss, Noor Almaadeed, Somaya Al-Maadeed</t>
+  </si>
+  <si>
+    <t>Video surveillance system Video analysis Video surveillance systems trends</t>
+  </si>
+  <si>
+    <t>Chen, D., Wang, P., Yue, L., Zhang, Y., &amp; Jia, T. (2020). Anomaly detection in surveillance video based on bidirectional prediction. Image and Vision Computing, 98, 103915. doi:10.1016/j.imavis.2020.103915 </t>
+  </si>
+  <si>
+    <t>Dongyue Chen, Pengtao Wang, Lingyi Yue, Yuxin Zhang, Tong Jia</t>
+  </si>
+  <si>
+    <t>Anomaly detection Bidirectional prediction Sliding window U-Net</t>
+  </si>
+  <si>
+    <t>Cheng, M., Cai, K., &amp; Li, M. (2021). RWF-2000: An Open Large Scale Video Database for Violence Detection. 2020 25th International Conference on Pattern Recognition (ICPR). doi:10.1109/icpr48806.2021.9412502 </t>
+  </si>
+  <si>
+    <t>RWF-2000: An Open Large Scale Video Database for Violence Detection</t>
+  </si>
+  <si>
+    <t>Ming Cheng, Kunjing Cai, Ming Li</t>
+  </si>
+  <si>
+    <t>Shreyas, D. G., Raksha, S., &amp; Prasad, B. G. (2020). Implementation of an Anomalous Human Activity Recognition System. SN Computer Science, 1(3). doi:10.1007/s42979-020-00169-0 </t>
+  </si>
+  <si>
+    <t>Implementation of an Anomalous Human Activity Recognition System</t>
+  </si>
+  <si>
+    <t>D. G. Shreyas,  S. Raksha, B. G. Prasad</t>
+  </si>
+  <si>
+    <t>Human activity recognition · Adaptive video compression · Vision-based human activity recognition · Anomaly detection</t>
+  </si>
+  <si>
+    <t>P. Kuppusamy, V.C. Bharathi</t>
+  </si>
+  <si>
+    <t>Human abnormal behavior detection using CNNs in crowded and uncrowded surveillance – A survey</t>
+  </si>
+  <si>
+    <t>Human abnormal behavior, Falling Vehicle theft Loitering, Patient’s abnormal behavior, Violence and panic Sexual abuse Suspicious behavior</t>
+  </si>
+  <si>
+    <t>Kuppusamy, P., &amp; Bharathi, V. (2022). Human abnormal behavior detection using CNNs in crowded and uncrowded surveillance – A survey. Measurement Sensors, 24, 100510. https://doi.org/10.1016/j.measen.2022.100510</t>
+  </si>
+  <si>
+    <t>Detection of Violent Behavior Using Neural Networks and Pose Estimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEVIN B. KWAN-LOO , JOSÉ C. ORTÍZ-BAYLISS , SANTIAGO E. CONANT-PABLOS , HUGO TERASHIMA-MARÍN AND P. RAD </t>
+  </si>
+  <si>
+    <t>Violent behavior, pedestrian detection, tracking, pose estimation, neural networks, frame buffer, computer vision.</t>
+  </si>
+  <si>
+    <t>Kwan-Loo, K. B., Ortiz-Bayliss, J. C., Conant-Pablos, S. E., Terashima-Marin, H., &amp; Rad, P. (2022). Detection of Violent Behavior Using Neural Networks and Pose Estimation. IEEE Access, 10, 86339-86352. https://doi.org/10.1109/access.2022.3198985</t>
+  </si>
+  <si>
+    <t>Vosta, S., &amp; Yow, K. (2022). A CNN-RNN Combined Structure for Real-World Violence Detection in Surveillance Cameras. Applied Sciences, 12(3), 1021. https://doi.org/10.3390/app12031021</t>
+  </si>
+  <si>
+    <t>A CNN-RNN Combined Structure for Real-World Violence Detection in Surveillance Cameras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soheil Vosta and Kin-Choong Yow </t>
+  </si>
+  <si>
+    <t>anomaly detection; surveillance cameras; ResNet; ConvLSTM; CNN+RNN; UCFcrimes</t>
+  </si>
+  <si>
+    <t>Ikeuchi, K. (2021). Computer Vision: A reference guide. En Springer eBooks. http://dl.acm.org/citation.cfm?id=2683927</t>
+  </si>
+  <si>
+    <t>Computer Vision: A reference guide</t>
+  </si>
+  <si>
+    <t>Katsushi Ikeuchi</t>
+  </si>
+  <si>
+    <t>In the field of surveillance research, analyzing the information contained in a video is the biggest challenge facing the computer vision. Several approaches have been applied in this area, particularly for the detection, classification and recognition of objects or events, which represents the main tasks of video surveillance systems.</t>
+  </si>
+  <si>
+    <t>The video surveillance systems are implemented to ensure security by reacting and predicting to all the possible events in the scene [9,10].</t>
+  </si>
+  <si>
+    <t>Sahay, K. B., Balachander, B., Jagadeesh, B., Kumar, G. A., Kumar, R., &amp; Parvathy, L. R. (2022). A real time crime scene intelligent video surveillance systems in violence detection framework using deep learning techniques. Computers &amp; Electrical Engineering, 103, 108319. https://doi.org/10.1016/j.compeleceng.2022.108319</t>
+  </si>
+  <si>
+    <t>Kishan Bhushan Sahay a, Bhuvaneswari Balachander. Jagadeesh , G. Anand Kumar, Ravi Kumar, L. Rama Parvathy</t>
+  </si>
+  <si>
+    <t>Surveillance system,Detecting crime scene video,Deep learning,ST,DRNN</t>
+  </si>
+  <si>
+    <t>A real time crime scene intelligent video surveillance systems in violence detection framework using deep learning techniques</t>
+  </si>
+  <si>
+    <t>R. Mathur, T. Chintala and D. Rajeswari, "Detecting Criminal Activities and Promoting Safety Using Deep Learning," 2022 International Conference on Advances in Computing, Communication and Applied Informatics (ACCAI), Chennai, India, 2022, pp. 1-8, doi: 10.1109/ACCAI53970.2022.9752619.</t>
+  </si>
+  <si>
+    <t>Rohan Mathur, Tejas Chintala and Rajeswari D</t>
+  </si>
+  <si>
+    <t>ResNet, Computer Vision, Deep Learning, Triplet Loss Function, Single Shot Detector, UCF Crime</t>
+  </si>
+  <si>
+    <t>Detecting Criminal Activities and Promoting Safety Using Deep Learning</t>
+  </si>
+  <si>
+    <t>there are many problems due to the variability of the scene: the size of the objects varies from one object to another in the same frame (for example a van and a person), objects have different  colors and the colors can be similar to the background leading to ”hid­ den objects”, the speeds of the objects are very variable, a block can contain more than one object of interest, etc</t>
+  </si>
+  <si>
+    <t>In prison, most causes of death are suicides by hanging[115]. The detection of this behavior can help to minimize the suicidal rate and can help the security agents to help those attempting suicide, by preventing the act of hanging. In [116], the authors proposed a method for suicide-by-hanging detection. Using RGB camera the video surveillance system can predict the act and start alarming. This method exploits the position of the body to identify the behavior of suicide</t>
+  </si>
+  <si>
+    <t>The purpose of tracking is to determine the spatial and temporal information of each target</t>
+  </si>
+  <si>
+    <t>Para el caso de human motion.detection se utilizó una arquitectura ConvNet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El articuko muestra un resumen de varios trabajos relaiconados a la seguridad mediante cámaras, muestra los tipos de cámaras y cual es mejor para cual ambiente, muestra cuales son los retos más comunes en el análisis de videos de vigilancia y sus aplicaciones más comunes, dentro de estas la que más nos importa es la de "motion detection" y "human motion-detection" </t>
+  </si>
+  <si>
+    <t>Anomaly detection is a task of extracting objects, behaviors or events with low probability from normal scenes.</t>
+  </si>
+  <si>
+    <t>Anomaly refers to the rarity of target or behavior, which is measured by the pattern consistency between the target framework and the training set</t>
+  </si>
+  <si>
+    <t>Se utilizó un modelo bidireccional basado en U-Net tulizando GAN</t>
+  </si>
+  <si>
+    <t>CUCK avenue y UCSD</t>
+  </si>
+  <si>
+    <t>CUCK Avenue trata sobre anormalidades en pasos peatonales, USCD se enfoca en las multitudes y se enfoca en personas que tengan una apariencia distinta y personas con comportamientos inusuales</t>
+  </si>
+  <si>
+    <t>Peak Signal-to-Noise Ratio para calcular el error, Area bajo la curva para calcular el rendimiento global, error cuadratico medio</t>
+  </si>
+  <si>
+    <t>El algoritmo propuesto tuvo mejores resultados en unos dataset (2/3) que en otros a comparación con los demás modelos comparados</t>
+  </si>
+  <si>
+    <t>El articulo propone un algoritmo bidireccional basado en redes GAN utilizando una aruitectura ssimilar a la U-Net, usa esta misma aruitectura tanto en la predicion de atrás como en la de adelante, posteriormente compara los resultados de este algoritmo contra los resultados obtenidos de otros algoritmos similares y con datasets comunes</t>
+  </si>
+  <si>
+    <t>Primero obtiene la imagen y la redimensiona a 256x256 pixeles, luego se mete al modelo bidireccional que toma 4 framse para predecir los que siguen, se hicieron pruebas para optimizarlo</t>
+  </si>
+  <si>
+    <t>Deep Reinforcement neural network (DRNN)</t>
+  </si>
+  <si>
+    <t>ac­ curacy of 98%, precision of 96%, Recall of 80% and F-1 score of 78% for crowd violence dataset; for UCSD dataset accuracy is 97%, precision is 95%, Recall is 79%, F-1 Score is 76%; violence flow dataset obtained accuracy of 95%, precision of 96%, Recall of 80% and F-1 score of 77%</t>
+  </si>
+  <si>
+    <t>Accuracy, preciison, recall y F1-score</t>
+  </si>
+  <si>
+    <t>UCSD dataset, Crowd violence dataset, Violence flow dataset</t>
+  </si>
+  <si>
+    <t>El sistema tomo como entrada los videos obtenidos de tres distintos datasets, luego los procesa y obtiene sus caracteristicas espacio-temporales para luego meterlas a la DRNN para que realice la clasificación. Por último se evalpuan los resultados usando accuracy, presicion, recall y F1 score</t>
+  </si>
+  <si>
+    <t>El articulo propone el uso de un descriptor espacio temporal para la extracción de caractersiticas en videos de seguridad con el fin de prevenir la violencia en tiempo real, para esto se utiliza una DRNN que clasifica los comportamientos sospechosos. Se centra en la detección de 12 clases violentas y las clases de "a salvo".</t>
+  </si>
+  <si>
+    <t>A human being’s deviation from normal behavior causing harm to the surrounding or to himself is categorized as an anomalous activity.</t>
+  </si>
+  <si>
+    <t>UCF Crime dataset</t>
+  </si>
+  <si>
+    <t>According to [13], multimedia data that are sequential require RNN (recurrent neural network) and LSTM (long short-term memory) for achieving the state-of-the-art result in video processing which is needed for human activity recognition. It suggests extraction of the deep feature from video sequences once in every six frames which gives perks of reduced complexity and redundancy. Deep bidirectional LSTM is used to learn the sequential information available in the frame features. The above-mentioned DB-LSTM stacks multiple layers in both of its forward and backward passes, thereby increasing the depth of the DB-LSTM network. This proposed method is proficient in processing lengthy videos by analyzing and extracting the deep features at fixed time intervals. This method for feature extraction results in significant improvement in human activity recognition. A threedimensional convolutional network (3DConvNets) is used to learn the features that are spatiotemporal, wherein this network is trained on a large video dataset that happens to be a supervised dataset. The findings of this literature led to the conclusion that spatiotemporal feature learning appears to be better in 3DConvNets as compared to 2DConvNets. This study also states that the best performing architecture is a homogenous architecture in which every layer has small 3×3×3 convolution kernels. Additionally, C3D features are compact and they achieve higher accuracy on the UCF101 dataset with only 10 dimensions. They are also computationally efficient due to the quick inference of the ConvNets. The literature also claims that C3D featur</t>
+  </si>
+  <si>
+    <t>It is observed that 3DConvNets are best suited for spatiotemporal feature extraction.</t>
+  </si>
+  <si>
+    <t>Using multiple-instance learning (MIL), a higher anomaly score is generated for anomalous videos than normal videos.</t>
+  </si>
+  <si>
+    <t>Area bajo la curva y matriz de confusión</t>
+  </si>
+  <si>
+    <t>Entre el modelo y un clasificador binario (55.0)  y un clasificados basado en SVM (75.6), obtuvo un mejor rendimiento comparando el área bajo la curva con 79.8</t>
+  </si>
+  <si>
+    <t>Cuando se mete el video se extraen los frames que luego se redimensionan a 128z171, los videos se cortan en 16 frames, a losc cuales se le extraen sus caracteristicas espacio temportales los cuales entran a una red neuronal de 4 capas totalmete conectadas y a traves de un aprendizaje de multiples instancias se genera una puntuacion mas alta para las anomalias.</t>
+  </si>
+  <si>
+    <t>Combinacion de una red neuronal de 4 capas y  un aprendizaje de multiples instancias. Para la extraccion de caracteristicas se uso una 3D conv net</t>
+  </si>
+  <si>
+    <t>Direfentes tipos de CNN (3DCNN) y LSTM</t>
+  </si>
+  <si>
+    <t>Las metodologías para la detección de comportamientos violentos combinan diversas técnicas de visión por computadora y aprendizaje profundo. Algunos enfoques usan GMM para extraer características espacio-temporales y flujo óptico para detectar movimientos, complementados con clustering Fuzzy C-means para identificar comportamientos anómalos, aunque requieren parametrización manual. Las redes 3D CNN capturan información temporal sin necesidad de características manuales, pero tienden a sobreajustarse en datasets pequeños. Otros modelos combinan CNN para extraer características espaciales y LSTM para analizar dependencias temporales, utilizando bloques residuales densos para mejorar la extracción entre fotogramas consecutivos. Las redes preentrenadas (VGG16, VGG19, ResNet50) también se emplean, pero presentan limitaciones similares de sobreajuste. Para mejorar la eficiencia, se aplican técnicas de muestreo de fotogramas clave y optimización con OPENVINO. En entornos más complejos, se generan Imágenes de Información de Movimiento (MII) usando el algoritmo de Lucas-Kanade, aunque con alto costo computacional. Modelos como auto-encoders y U-Net combinan la detección de apariencias y movimiento, mientras que arquitecturas de doble flujo con CNNs 3D (RGB y flujo óptico) permiten identificar múltiples comportamientos simultáneos. En escenarios de vigilancia, se utilizan Yolo V2 con filtros de Kalman para seguimiento de objetos, combinado con LSTM para reconocer comportamientos específicos. Finalmente, enfoques más avanzados integran CNN, LSTM y mecanismos de atención para diferenciar entre comportamientos normales y anómalos, enfrentando como principal reto la disponibilidad limitada de datos y el consumo elevado de recursos.</t>
+  </si>
+  <si>
+    <t>HockeyFight, Movies UCF- 101, and CrowdViolence datasets. PLC Movies, HCF, UTI, BEHAVE dataset
+UCF-101, and UMN.</t>
+  </si>
+  <si>
+    <t>HockeyFight contiene secuencias de partidos de hockey con peleas etiquetadas, mientras que UCF-101 ofrece 101 categorías de actividades humanas, siendo útil para el reconocimiento de acciones. CrowdViolence se enfoca en detectar violencia en multitudes y situaciones de pánico, y PLC Movies recopila escenas violentas de películas para análisis en entornos controlados. El HCF captura interacciones humanas en multitudes con comportamientos normales y anómalos, mientras que UTI incluye interacciones como abrazos, empujones y peleas. Por último, UMN se especializa en la detección de comportamientos anormales como pánico y evacuaciones en situaciones de emergencia.</t>
+  </si>
+  <si>
+    <t>Accuracy is varying from 51.33% to 100% by changing the epochs from 10 to 100, and LSTM cells from 15, 30, and 60. HockeyFight – 98.8%, Movies
+UCF-101 – 99.1%, CrowdViolence
+− 97.1%,
+BEHAVE dataset - 95.9%</t>
+  </si>
+  <si>
+    <t>El articulo hace una recopilacion de sistemas que reconocen acciones humanas utilizando CNNs para el entrenamiento, los divide entre grupos y los datos que se encuentran en esta fila corresponden a los datos de "violence and panic anormal behavior recognition"</t>
+  </si>
+  <si>
+    <t>El artículo presenta una metodología que combina detección de peatones, estimación de poses y redes neuronales para la detección de comportamientos violentos en videos. Utiliza YOLOv3 para detectar peatones en cada cuadro y un algoritmo de tracking basado en la intersección sobre la unión (IoU) para asociar la ubicación de los peatones a través de los cuadros consecutivos. A cada peatón detectado se le aplica la estimación de poses mediante una versión ligera del algoritmo OpenPose, que identifica 25 puntos clave del cuerpo. Las coordenadas de estos puntos se convierten en ángulos, que se usan como características para el modelo de clasificación. El modelo emplea una red neuronal profunda con capas completamente conectadas y activación softmax para clasificar el comportamiento en normal o violento. Se utiliza validación cruzada de 10 particiones para entrenar y evaluar el modelo con la base de datos Kranok-NV, creada por los autores y que contiene 3,683 videos etiquetados como normales o violentos. Además, se aplica un método de promedio de predicción deslizante para reducir errores de clasificación consecutivos (flickering).</t>
+  </si>
+  <si>
+    <t>Kranok-NV Dataset</t>
+  </si>
+  <si>
+    <t>Kranok-NV Dataset: Descripción: Es una base de datos creada por los autores, compuesta por 3,683 videos divididos en dos clases: comportamientos normales (3,000 videos) y violentos (683 videos).</t>
+  </si>
+  <si>
+    <t>Redes neuronales profundas (DNN) y OpenPose para la deteccion de puntos de interés en el cuerpo</t>
+  </si>
+  <si>
+    <t>Accuracy, preciison, recall, F1-score y especificidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior al 98% </t>
+  </si>
+  <si>
+    <t>El artículo propone un modelo para detectar comportamientos violentos usando YOLOv3 para detección de peatones, OpenPose para estimación de poses, y una red neuronal profunda que clasifica los movimientos en normales o violentos a partir de los ángulos de las articulaciones. Se entrenó y evaluó con la nueva base de datos Kranok-NV (3,683 videos) logrando una precisión superior al 98% mediante validación cruzada. El modelo destaca por su independencia del contexto, aunque enfrenta desafíos en situaciones complejas y videos de baja resolución. Se implementó un promedio de predicción deslizante para mejorar la estabilidad en las predicciones​</t>
+  </si>
+  <si>
+    <t>UCF-Crime dataset, Ucfcrimes, Binary, 4MajorCat, and
+NREF</t>
+  </si>
+  <si>
+    <t>ResNet50 plus ConvLSTM</t>
+  </si>
+  <si>
+    <t>El artículo propone un modelo basado en una combinación de ResNet50 y ConvLSTM para la detección de comportamientos anómalos en videos de vigilancia. En la metodología, cada video se divide en secuencias de cuadros, y la diferencia entre cuadros consecutivos se envía al modelo. ResNet50 se encarga de la extracción de características espaciales, mientras que ConvLSTM captura la información temporal para detectar eventos anómalos. Se aplican capas de max-pooling y fully connected con normalización y funciones de activación para clasificar los eventos en normales o anómalos.</t>
+  </si>
+  <si>
+    <t>AUC, Accuracyn,precision, recall y F1-score</t>
+  </si>
+  <si>
+    <t>Binary: Clasificación binaria (anómalos vs. normales).</t>
+  </si>
+  <si>
+    <t>UCF-Crime: Contiene videos largos y sin recortes capturados por cámaras de vigilancia en entornos públicos. Incluye 13 categorías de eventos anómalos y eventos normales. El dataset se dividió en: 4MajorCat: Agrupa NREF: Videos de eventos específicos como accidentes de tráfico y explosiones. anomalías en tres categorías (Robo, Vandalismo, Violencia).</t>
+  </si>
+  <si>
+    <t>NREF tiene un área bajo la curva (AUC) del 79.04% y una precisión del 65.38%. El modelo 4MajCat presenta un AUC del 73.88% y una precisión del 62.22%. En cuanto al modelo Ucfcrimes, su AUC es del 53.88% y su precisión del 22.72%. Finalmente, el modelo Binary alcanza un AUC del 81.71% y una precisión del 62.5%.</t>
+  </si>
+  <si>
+    <t>El UCF Crime Dataset es un conjunto de datos extenso y diverso desarrollado por la Universidad de Florida Central (UCF) para la detección de actividades delictivas en videos de vigilancia. Contiene más de 1,900 videos con 13 tipos de crímenes (como robos, peleas, vandalismo y agresiones) y actividades normales para entrenar y evaluar modelos de detección.</t>
+  </si>
+  <si>
+    <t>El UCSD Dataset, el Crowd Violence Dataset y el Violence Flow Dataset son para la detección de comportamiento violento y análisis de multitudes en videos. El UCSD Dataset contiene escenas de multitudes en movimiento, utilizadas para  detección de anomalías. El Crowd Violence Dataset identificar actos de violencia en entornos de multitudes, proporcionando ejemplos etiquetados de situaciones violentas y no violentas. el Violence Flow Dataset utiliza flujo óptico para capturar patrones dinámicos que caracterizan episodios de violencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anomaly detection in surveillance video based on bidirectional prediction. Image and Vision Computing,</t>
+  </si>
+  <si>
+    <t>A study on implementation of real‑time intelligent video surveillance system based on embedded module</t>
+  </si>
+  <si>
+    <t>Keeping an eye on loitering can prevent various crimes beforehand</t>
+  </si>
+  <si>
+    <t>Kim, J. S., Kim, M., &amp; Pan, S. B. (2021). A study on implementation of real-time intelligent video surveillance system based on embedded module. EURASIP Journal On Image And Video Processing, 2021(1). https://doi.org/10.1186/s13640-021-00576-0</t>
+  </si>
+  <si>
+    <t>Intelligent video surveillance system, Intruder detection, Fire detection, Loitering detection, Fall detection</t>
+  </si>
+  <si>
+    <t>Jin Su Kim, Min‑Gu Kim and Sung Bum Pan</t>
+  </si>
+  <si>
+    <t>88.51% for intruder detection, 92.63% for fire detection, 80% for loitering detection, and 93.54% for fall detection</t>
+  </si>
+  <si>
+    <t>An abnormal situation is defined as a situation different from general behaviors and environment from the standard personal, statistic, socio-cultural and professional viewpoint.</t>
+  </si>
+  <si>
+    <t>The method for identifying loitering is divided into the method for using time to measure the time of an object staying in an image [1, 18, 19], and the method dividing an image inputted into blocks of n by m to measure the time in each block [20, 20]. This is a method for using the characteristics that a loitering person shows more directional changes than normal people to measure object angles [22]. The method for identifying loitering by using 2 conditions for determining loitering is divided into the method for measuring the object time and the block time [23], the method for measuring the object time and using angles [24], and the method for using angles and the object movement distance [25]</t>
+  </si>
+  <si>
+    <t>Para los intrusos y las caidas se hicieron pruebas en tiempo real, para la detección de fuego se uso NIST, para el merodeo PETS y  un dataset propio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este sistema detecta un objeto en movimiento con las imágenes diferenciales adaptativas del vídeo introducido por el módulo integrado y realiza una erosión para comprobar su precisión. Cuando no se detecta un objeto durante un tiempo determinado, se actualiza la imagen de fondo y se utiliza la información sobre el tamaño del objeto para determinar si se trata de un cuerpo humano. Si no se trata de un cuerpo humano, se utiliza la información de color y de movimiento para detectar incendios. Cuando se determina que es un cuerpo humano, el sistema lleva a cabo la detección de intrusos utilizando la información enseñada, la detección de merodeo mediante los cambios en el ángulo del punto de equilibrio y en las distancias de movimiento, y la detección de caídas utilizando la información de movimiento del cuerpo humano y la información de aceleración. Cuando se identifica una situación anormal, este sistema utiliza SMS y la biblioteca Mock para enviar las imágenes y así notificar la relevancia de la situación anormal identificada. </t>
+  </si>
+  <si>
+    <t>NIST - contains results, data files and images of fire experiments, PETS -</t>
+  </si>
+  <si>
+    <t>Se mide el tiempo en el que se deteccta cada anomalía</t>
+  </si>
+  <si>
+    <t>TensorFlow and AlexNet for face recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento presenta un breve estado del arte en el que se resumen en categoritas los trabajos relacionados a lo que e busa detetar como comportamiento aómalo, despues describe brevemente la metodologia y las tecnologias a utilizar, para después explicar cada una más detalladamente. Tambien presenta la metodologia para la optimizacion del sistema y por ultimo muestra los resultados obtenidos, mediante gráficas de la evaluacion de cada uno de los algoritmos, asi como su respectiva comparacion despues de la optimización. </t>
+  </si>
+  <si>
+    <t>CamNuvem: A Robbery Dataset for Video Anomaly Detection</t>
+  </si>
+  <si>
+    <t>De Paula, D. D., Salvadeo, D. H. P., &amp; De Araujo, D. M. N. (2022). CamNuvem: A Robbery Dataset for Video Anomaly Detection. Sensors, 22(24), 10016. https://doi.org/10.3390/s222410016</t>
+  </si>
+  <si>
+    <t>video anomaly detection; dataset; human behaviour analysis; weakly supervised; activity recognition; video surveillance; deep learning</t>
+  </si>
+  <si>
+    <t>Davi D. de Paula, Denis H. P. Salvadeo and Darlan M. N. de Araujo</t>
+  </si>
+  <si>
+    <t>CamNuvem</t>
+  </si>
+  <si>
+    <t>Contiene 972 videos de os cuales 486 son de robo. Los vifeos tienen una resolucion de 320x240px y 30fps</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>se centra en el uso de aprendizaje débilmente supervisado para detectar anomalías en videos de vigilancia en situaciones de robo. Primero, se creó un nuevo conjunto de datos de 486 videos de robos reales, obtenidos de fuentes públicas. Luego, tres métodos de detección de anomalías se aplicaron al conjunto de datos: aprendizaje de magnitud de características temporales robustas (RTFM), localización de anomalías débilmente supervisada (WSAL) y detección de anomalías en la vigilancia del mundo real (RADS). Este enfoque permite identificar segmentos anómalos sin necesidad de etiquetado a nivel de fotograma, reduciendo así los costos y facilitando el entrenamiento del modelo​</t>
+  </si>
+  <si>
+    <t>aprendizaje de múltiples instancias (Multiple Instance Learning, MIL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTFM - Alcanzó un AUC de 88.75% al evaluar todo el conjunto de prueba y un 66.35% al evaluar solo los videos anómalos. WSAL - Logró un AUC de 83.45% en el conjunto completo de prueba y un 54.59% al enfocarse solo en videos con anomalías. RADS - Obtuvo un AUC de 82.48% en el conjunto completo y de 50.51% en videos solo con anomalías. </t>
+  </si>
+  <si>
+    <t>El documento presenta un conjunto de datos para detectar robos en videos de vigilancia, debido a la escasez de datos específicos de robos en otros conjuntos. Incluye 486 videos de robos y utiliza etiquetado débil, solo indicando si un video contiene anomalías. Se evaluaron tres métodos de detección (RTFM, WSAL y RADS), siendo RTFM el más preciso en la detección general, aunque todos mostraron dificultades para localizar segmentos específicos de anomalías dentro de los videos. Los resultados destacan la necesidad de mejorar estos métodos para aplicaciones de vigilancia en tiempo real​</t>
+  </si>
+  <si>
+    <t>Distributed Intelligent Video Surveillance for Early Armed Robbery Detection based on Deep Learning</t>
+  </si>
+  <si>
+    <t>Fernandez-Testa, S., &amp; Salcedo, E. (2024). Distributed Intelligent Video Surveillance for Early Armed Robbery Detection Based on Deep Learning. IEEE Xplore, 1-6. https://doi.org/10.1109/sibgrapi62404.2024.10716299</t>
+  </si>
+  <si>
+    <t>Sergio Fernandez-Testa and Edwin Salcedo</t>
+  </si>
+  <si>
+    <t>La metodología de este sistema de detección de robos a mano armada se basa en un sistema distribuido de video vigilancia que combina dispositivos IoT y aprendizaje profundo. Primero, se entrenó un modelo YOLOv5 para la detección de armas en el dispositivo final. Luego, los dispositivos en el borde realizan detecciones preliminares de armas y, si se identifica una posible amenaza, envían las imágenes a un servidor en la nube. Allí, un modelo 3DCNN analiza la escena completa para confirmar si es un robo, reduciendo así los falsos positivos. El sistema alerta en tiempo real a través de una aplicación móvil y WhatsApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOHAS Weapon y COCO </t>
+  </si>
+  <si>
+    <t>OHAS Weapon -  contiene imágenes de armas de fuego y armas blancas, ya sea en posesión de personas o ubicadas sobre superficies planas. COCO - teléfonos móviles, mandos a distancia, libros y otros, para reducir falsos positivos.</t>
+  </si>
+  <si>
+    <t>YOLO v5s - mAP: 0.87, Precisión: 0.84, Recall: 0.85, F1-Score: 0.84, AUC: 0.92</t>
+  </si>
+  <si>
+    <t>Se probaron y compararon diferentes versiones, incluyendo YOLOv5, YOLOv7, YOLOS, y YOLOv8. Finalmente, se seleccionó YOLOv5s (una variante ligera de YOLOv5) por su balance entre precisión y velocidad, lo que lo hacía adecuado para la implementación en dispositivos de borde. Además, YOLOv5s alcanzó un rendimiento de 4.43 FPS (frames por segundo) cuando se optimizó con TensorRT, permitiendo la detección en tiempo real de armas en escenas complejas.</t>
+  </si>
+  <si>
+    <t>(3DCNN) - Diferentes versioes de YOLO (v5,v7,v8)</t>
+  </si>
+  <si>
+    <t>El sistema de vigilancia inteligente desarrollado utiliza YOLOv5s para detectar armas en dispositivos IoT, y un modelo 3DCNN en la nube para confirmar robos, reduciendo falsos positivos. El entrenamiento incluyó 16,799 imágenes de armas y objetos similares (provenientes de SOHAS y COCO), con métricas de evaluación como mAP, precisión y F1-Score, donde YOLOv5s alcanzó un mAP de 0.87 y funcionó en tiempo real (4.43 FPS). Ante una detección confirmada, se envían alertas por WhatsApp, permitiendo la vigilancia de múltiples áreas en tiempo real</t>
+  </si>
+  <si>
+    <t>Recognition of Suspicious Human Activity in Video Surveillance: A Review</t>
+  </si>
+  <si>
+    <t>Neha Gupta, Bharat Bhushan Agarwal</t>
+  </si>
+  <si>
+    <t>suspicious activity; video surveillance; human activity; deep learning</t>
+  </si>
+  <si>
+    <t>Gupta, N. G., &amp; Bhushan Agarwal, B. B. A. (2023). Recognition of Suspicious Human Activity in Video Surveillance: A Review. Engineering, Technology &amp; Applied Science Research, 12(2).</t>
+  </si>
+  <si>
+    <t>Loitering individuals: We have loitering when a person is present at a particular location for a longer period than required.</t>
+  </si>
+  <si>
+    <t>Moving object recognition is challenging to accurately process due to dynamic fluctuation in natural environments such as slow illumination changes brought on by day-tonight shifts and quick illumination differences brought on by weather changes.</t>
+  </si>
+  <si>
+    <t>FRONT YARD ROBBERY ACTION DETECTION CLIMB-OVER-GATE ACTION ANALYSIS</t>
+  </si>
+  <si>
+    <t>Lim Kar Heng</t>
+  </si>
+  <si>
+    <t>Kar Heng Lim. (2021). FRONT YARD ROBBERY ACTION DETECTION CLIMB-OVER-GATE ACTION ANALYSIS [Tesis de licenciatura]. UNIVERSITI TUNKU ABDUL RAHMAN.</t>
+  </si>
+  <si>
+    <t>A motion-detection sensor is used to detect movement in those systems and an alarm will be triggered when a movement is detected. This is considered bad because the alarm can be triggered by any moving objects such as a passing animal. As for a normal surveillance system without motion sensors attached to them, they usually require a guard to constantly checking on the screen of what being recorded to know if a robbery is occurring, and then the alarm will be trigger by the guards. A robbery might happen while the guards is not paying attention on the screen, therefore the robbery cannot be prevented.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema propuesto identificará el objeto en primer plano y detectará si una persona ajena a la casa está entrando en el patio delantero escalando la verja o las vallas. Este sistema necesita detectar todos los objetos en movimiento de la escena. A continuación, el objeto detectado será rastreado para controlar su movimiento. Cuando parezca que el objeto está saltando o trepando por la verja o la valla para entrar en el jardín, YOLO empezará a identificar el objeto. Si el objeto que realiza esa acción se identifica como una persona, se activará una alerta. OpenCV y YOLO se utilizarán para desarrollar el sistema. El lenguaje de programación utilizado será C++ ya que es el lenguaje en el que está escrita la librería OpenCV. </t>
+  </si>
+  <si>
+    <t>every 10 frames of the video, the features on the moving object is identified</t>
+  </si>
+  <si>
+    <t>YOLO</t>
+  </si>
+  <si>
+    <t>El sistema propone un metodo para detectar personas saltando portones, se usan herramientas como YOLO y OpenCV para detectar el flujo optico y posteriormente identificar si es una persona para mandar un señal al usuario. Al final compara este método con otro hecho con HOG y presenta los resultados obtenidos. (Aunque sin gráficas o porcentajes :( )</t>
+  </si>
+  <si>
+    <t>Front Yard Surveillance System: Robbery Scene Detection</t>
+  </si>
+  <si>
+    <t>Tang Jia Le</t>
+  </si>
+  <si>
+    <t>Jia Le, T. J. L. (2020). Front Yard Surveillance System: Robbery scene Detection [Tesis de licenciatura]. UNIVERSITI TUNKU ABDUL RAHMAN.</t>
+  </si>
+  <si>
+    <t>YOLO detección de objetos, seguimiento de contornos basado en la sustracción temporal y análisis de movimiento. En primer lugar, YOLO empieza a detectar personas y coches presentes en el fotograma de vídeo y almacena su ubicación. Cuando se detecta un coche, se empieza a medir el tiempo de estacionamiento del coche. Una vez almacenada la posición humana inicial, la posición humana posterior se detecta con una simple sustracción temporal para reducir los recursos computacionales. El proceso de seguimiento del contorno continúa hasta que no se detecta movimiento humano en los 10 fotogramas siguientes. Todo el movimiento humano detectado se dibujará como una flecha para indicar la dirección del movimiento humano. El análisis se realiza calculando el tiempo de parada del vehículo y el número de movimientos humanos en la entrada y en la zona del vehículo. Si la probabilidad de movimiento humano en la zona de la entrada y el coche es alta y el tiempo de inactividad del coche supera los 25 segundos, se emite una advertencia.</t>
+  </si>
+  <si>
+    <t>El sistema propone un metodo para detectar personas saltando portones, se usan herramientas como YOLO aunque no se presentan resultados exactos, solo se presentan 3 ejemplos</t>
+  </si>
+  <si>
+    <t>Harish, P., Subhashini, R., &amp; Priya, K. (2014). Intruder detection by extracting semantic content from surveillance videos. IEEE Xplore. https://doi.org/10.1109/icgccee.2014.6922469</t>
+  </si>
+  <si>
+    <t>Palagati Harish, Dr.R.Subhashini, K.Priya</t>
+  </si>
+  <si>
+    <t>Semantic content; Ontology; Human activity recognition; Spatial and Temporal Relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El método propuesto no sólo proporciona la extracción de las características, sino que también extrae el contenido semántico utilizando la ontología y las relaciones espacio-temporales. Utilizando estos contenidos semánticos se extraen características de alto nivel como clases y eventos. Estas características proporcionan un contenido significativo del vídeo grabado. De este modo se evitan las falsas coincidencias del intruso al identificar las relaciones semánticas de las distintas tomas de la secuencia de vídeo. </t>
+  </si>
+  <si>
+    <t>El articulo propone un metodo para detectar intrusos a traves de camaras de vigilancia mediante ROI, aunque no da resultados, no hay graficas ni nada :( solo la metodologia que se propuso</t>
+  </si>
+  <si>
+    <t>no dice</t>
+  </si>
+  <si>
+    <t>el sistema logra una detección precisa de intrusos en entornos concurridos, minimizando coincidencias falsas y mejorando la precisión al identificar el comportamiento del intruso en relación con su entorno</t>
+  </si>
+  <si>
+    <t>Loitering Detection in Home Surveillance System</t>
+  </si>
+  <si>
+    <t>Shanmughapriya M, Gunasundari S, S Bharathy</t>
+  </si>
+  <si>
+    <t>Loitering Detection, HAR, YOLOv3, DeepSORT</t>
+  </si>
+  <si>
+    <t>M, S., S, G., &amp; Bharathy, S. (2022). Loitering Detection in Home Surveillance System. 2022 10th International Conference On Emerging Trends In Engineering And Technology - Signal And Information Processing (ICETET-SIP-22). https://doi.org/10.1109/icetet-sip-2254415.2022.9791651</t>
+  </si>
+  <si>
+    <t>Yolo v3 para la deteccion de individuos y DeepSORT para el seguimiento del individuo, con Haar Cascade algorithm se determino la cara de la persona</t>
+  </si>
+  <si>
+    <t>Suburban areas where home are isolated and unguarded during the day time may have an outside video surveillance system present, the CCTV cameras present in a home or a house will be useful for privacy protection and security monitoring [10]. The hours of video recorded by the CCTV to be reviewed manually by the home owner in order to see the loiterers around his house.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The loiterers are identified by their time spent if the same person is tracked for more than a minute around the house, </t>
+  </si>
+  <si>
+    <t>La metodología de este sistema de detección de merodeo en videos de vigilancia doméstica se centra en identificar y rastrear personas en escenas de video en tiempo real. Primero, se utiliza el modelo YOLOv3 para detectar personas en cada cuadro, limitando su clasificación a una única clase, "persona". Posteriormente, el algoritmo DeepSORT rastrea el movimiento de cada individuo identificado, calculando el tiempo que permanecen en la escena. Si una persona es detectada en el video durante más de un minuto, se clasifica como merodeador. Luego, el sistema emplea el algoritmo Haar Cascade para capturar y almacenar una imagen de la cara del merodeador, si es posible, para futura referencia.</t>
+  </si>
+  <si>
+    <t>No dice, pero fueron vidos de cámaras de videovigilancia domésticas</t>
+  </si>
+  <si>
+    <t>El sistema mostró efectividad en identificar y rastrear a personas en un entorno doméstico.  El rendimiento general del sistema mostró tiempos de respuesta rápidos, con detección y rastreo de individuos en un intervalo de 3 segundos, siempre que la velocidad de carga de red alcanzara los 8 Mbps.</t>
+  </si>
+  <si>
+    <t>Intruder Detection by Extracting Semantic Content from Surveillance Videos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +774,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="NimbusSanL-Regu"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="NimbusSanL-ReguItal"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242021"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="WarnockPro-Regular"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -100,12 +834,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,57 +1270,1302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D95152-D6B7-4E89-A7E1-C5B7898D7FE0}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="16.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="33.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="44.44140625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="28.8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="57.6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="86.4" customHeight="1">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2023</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="105.6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="100.8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="187.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="115.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="115.2" hidden="1">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2011</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="115.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="100.8">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="86.4" hidden="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="273.60000000000002">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="187.2">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="409.6">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="388.8">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="129.6" hidden="1">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="201.6">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="57.6" hidden="1" customHeight="1">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="345.6">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="230.4">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="216">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="72" hidden="1">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2023</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="244.8">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="360">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="172.8">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="244.8">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="G7:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF208BC5-7CFF-4DFF-B5A0-BCE69A279377}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="2"/>
+    <col min="2" max="2" width="55.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="66">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="86.4">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="100.8">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57.6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" ht="72">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" ht="57.6" customHeight="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" ht="57.6" customHeight="1">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" ht="72" customHeight="1">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="86.4">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:3" ht="86.4">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="57.6" customHeight="1">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3" ht="86.4">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3" ht="115.2">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3" ht="57.6" customHeight="1">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:3" ht="57.6" customHeight="1">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="57.6" customHeight="1">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="23"/>
+    </row>
+    <row r="18" spans="1:3" ht="57.6" customHeight="1">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="360">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" ht="57.6" customHeight="1">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" ht="57.6" customHeight="1">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" ht="86.4" customHeight="1">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="43.2">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" ht="158.4">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:3" ht="28.8">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="57.6">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="21"/>
+    </row>
+    <row r="27" spans="1:3" ht="144">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="43.2">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="86.4">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.8">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C11:C15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documentos/papers.xlsx
+++ b/documentos/papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chj06\OneDrive\Documents\Escuela\Proyecto_Terminal\Monitoreo-Comportamientos-Sospechosos\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5E1EB3-4967-4072-A4A4-C441DF8F85D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21E9C60-3332-40DF-AFDF-62C466BA1190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F6E72EA-7162-433F-B57F-5767390D9FC0}"/>
   </bookViews>
@@ -1272,10 +1272,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D95152-D6B7-4E89-A7E1-C5B7898D7FE0}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1607,7 +1607,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="100.8">
-      <c r="A10" s="2">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1665,7 +1665,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="273.60000000000002">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1904,7 +1904,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="345.6">
-      <c r="A19" s="2">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2142,7 +2142,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="244.8">
-      <c r="A26" s="2">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
